--- a/teams_logins/dodani.xlsx
+++ b/teams_logins/dodani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WojciechBalcerzak\Desktop\mantica\teams_logins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD8C36-661F-4E10-A2ED-B065AD5E7E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269918A0-8F2F-4FF4-9591-97E5CED9E314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lista" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+  <si>
+    <t>Nazwa wyświetlana</t>
+  </si>
   <si>
     <t>Nazwa użytkownika</t>
   </si>
@@ -28,137 +31,74 @@
     <t>Hasło</t>
   </si>
   <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwa wyświetlana</t>
-  </si>
-  <si>
-    <t>Stanowisko</t>
-  </si>
-  <si>
-    <t>Uwagi</t>
-  </si>
-  <si>
-    <t>Alternatywny adres e-mail</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>adam.mastalski@otwartaszkola.pl</t>
-  </si>
-  <si>
-    <t>Pol70336</t>
-  </si>
-  <si>
-    <t>Mastalski</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Adam Mastalski</t>
-  </si>
-  <si>
-    <t>5 SP Uzup</t>
-  </si>
-  <si>
-    <t>hanna.juszczak@otwartaszkola.pl</t>
-  </si>
-  <si>
-    <t>Sav36007</t>
-  </si>
-  <si>
-    <t>Juszczak</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Hanna Juszczak</t>
-  </si>
-  <si>
-    <t>4 SP Uzup</t>
-  </si>
-  <si>
-    <t>naomi.olczyk@otwartaszkola.pl</t>
-  </si>
-  <si>
-    <t>Bal44447</t>
-  </si>
-  <si>
-    <t>Olczyk</t>
-  </si>
-  <si>
-    <t>Naomi</t>
-  </si>
-  <si>
-    <t>Naomi Olczyk</t>
-  </si>
-  <si>
-    <t>leonard.juszczak@otwartaszkola.pl</t>
-  </si>
-  <si>
-    <t>Nan36384</t>
-  </si>
-  <si>
-    <t>Leonard</t>
-  </si>
-  <si>
-    <t>Leonard Juszczak</t>
-  </si>
-  <si>
-    <t>2 SP Uzup</t>
-  </si>
-  <si>
-    <t>michal.fojcik@otwartaszkola.pl</t>
-  </si>
-  <si>
-    <t>Poh22623</t>
-  </si>
-  <si>
-    <t>Fojcik</t>
-  </si>
-  <si>
-    <t>Michał</t>
-  </si>
-  <si>
-    <t>Michał Fojcik</t>
-  </si>
-  <si>
-    <t>4 SP Ram</t>
-  </si>
-  <si>
-    <t>zofia.duda@otwartaszkola.pl</t>
-  </si>
-  <si>
-    <t>Rul99525</t>
-  </si>
-  <si>
-    <t>Duda</t>
-  </si>
-  <si>
-    <t>Zofia</t>
-  </si>
-  <si>
-    <t>Zofia Duda</t>
-  </si>
-  <si>
-    <t>1 LO Ram</t>
+    <t>Licencje</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Olaf Ładniak</t>
+  </si>
+  <si>
+    <t>olaf.ladniak@otwartaszkola.pl</t>
+  </si>
+  <si>
+    <t>Luc16241</t>
+  </si>
+  <si>
+    <t>Office 365 A1 dla uczniów lub studentów</t>
+  </si>
+  <si>
+    <t>Benjamin Ładniak</t>
+  </si>
+  <si>
+    <t>benjamin.ladniak@otwartaszkola.pl</t>
+  </si>
+  <si>
+    <t>Vof26527</t>
+  </si>
+  <si>
+    <t>Julia Bachowska</t>
+  </si>
+  <si>
+    <t>julia.bachowska@otwartaszkola.pl</t>
+  </si>
+  <si>
+    <t>Ruh46258</t>
+  </si>
+  <si>
+    <t>Piotr Łukasiak</t>
+  </si>
+  <si>
+    <t>piotr.lukasiak@otwartaszkola.pl</t>
+  </si>
+  <si>
+    <t>Xuz08164</t>
+  </si>
+  <si>
+    <t>Ethan Skarb-Patell</t>
+  </si>
+  <si>
+    <t>ethan.skarb-patell@otwartaszkola.pl</t>
+  </si>
+  <si>
+    <t>Qot96225</t>
+  </si>
+  <si>
+    <t>Michał Jan Wójcik</t>
+  </si>
+  <si>
+    <t>michal.wojcik@otwartaszkola.pl</t>
+  </si>
+  <si>
+    <t>Pam49565</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,19 +111,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -210,19 +152,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,26 +466,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -559,188 +499,120 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3">
-        <v>45317</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3">
-        <v>45317</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3">
-        <v>45317</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3">
-        <v>45317</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3">
-        <v>45317</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3">
-        <v>45317</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{E43612CF-9B36-49DD-86A7-77078D0BC967}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>